--- a/Fixtures.xlsx
+++ b/Fixtures.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Insper\2° semestre\CDados\Projetos\Projeto2_Cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{495FC3F3-8C2B-4939-95E7-5E1EF1E70E1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADEBC0-7AA3-4DD4-B4DE-E5B133C6011C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="258" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="2" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="next_fixtures" sheetId="2" r:id="rId1"/>
+    <sheet name="table" sheetId="4" r:id="rId2"/>
+    <sheet name="Plan2" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="29">
   <si>
     <t>Home</t>
   </si>
@@ -70,9 +71,6 @@
     <t>Newcastle</t>
   </si>
   <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
@@ -95,6 +93,27 @@
   </si>
   <si>
     <t>Man Utd</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenal </t>
+  </si>
+  <si>
+    <t>Burley</t>
+  </si>
+  <si>
+    <t>Bornemouth</t>
+  </si>
+  <si>
+    <t>Norwich</t>
   </si>
 </sst>
 </file>
@@ -453,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,13 +497,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,29 +511,29 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -522,10 +541,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -533,10 +552,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -544,10 +563,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -555,10 +574,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -566,10 +585,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -577,10 +596,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -588,43 +607,43 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>31</v>
@@ -632,10 +651,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>31</v>
@@ -643,10 +662,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>31</v>
@@ -654,10 +673,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>31</v>
@@ -665,10 +684,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -676,10 +695,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -687,10 +706,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>31</v>
@@ -698,43 +717,43 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>32</v>
@@ -742,10 +761,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>32</v>
@@ -753,10 +772,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>32</v>
@@ -764,10 +783,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>32</v>
@@ -775,10 +794,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>32</v>
@@ -786,10 +805,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>32</v>
@@ -797,10 +816,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>32</v>
@@ -808,13 +827,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,29 +841,29 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="C34" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -852,10 +871,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>33</v>
@@ -863,10 +882,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37">
         <v>33</v>
@@ -874,10 +893,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>33</v>
@@ -885,10 +904,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>33</v>
@@ -896,10 +915,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>33</v>
@@ -907,10 +926,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>33</v>
@@ -918,43 +937,43 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="1">
-        <v>34</v>
+      <c r="C42">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
       <c r="C43">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>34</v>
@@ -962,10 +981,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>34</v>
@@ -973,10 +992,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
         <v>20</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
       </c>
       <c r="C47">
         <v>34</v>
@@ -984,10 +1003,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>34</v>
@@ -995,10 +1014,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>34</v>
@@ -1006,10 +1025,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>34</v>
@@ -1017,10 +1036,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
         <v>17</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
       </c>
       <c r="C51">
         <v>34</v>
@@ -1028,43 +1047,43 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="1">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55">
         <v>35</v>
@@ -1072,10 +1091,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>35</v>
@@ -1083,10 +1102,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>35</v>
@@ -1094,10 +1113,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>35</v>
@@ -1105,10 +1124,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>35</v>
@@ -1116,10 +1135,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>35</v>
@@ -1130,7 +1149,7 @@
         <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <v>35</v>
@@ -1138,43 +1157,43 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="1">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="C64" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C65">
         <v>36</v>
@@ -1182,10 +1201,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>36</v>
@@ -1193,10 +1212,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>36</v>
@@ -1204,10 +1223,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C68">
         <v>36</v>
@@ -1215,10 +1234,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C69">
         <v>36</v>
@@ -1226,10 +1245,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C70">
         <v>36</v>
@@ -1237,10 +1256,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C71">
         <v>36</v>
@@ -1248,43 +1267,43 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="1">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C75">
         <v>37</v>
@@ -1292,10 +1311,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C76">
         <v>37</v>
@@ -1303,10 +1322,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>37</v>
@@ -1314,10 +1333,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>37</v>
@@ -1325,10 +1344,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C79">
         <v>37</v>
@@ -1336,10 +1355,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C80">
         <v>37</v>
@@ -1350,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>37</v>
@@ -1358,43 +1377,43 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="1">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C85">
         <v>38</v>
@@ -1402,10 +1421,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C86">
         <v>38</v>
@@ -1413,10 +1432,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C87">
         <v>38</v>
@@ -1424,10 +1443,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C88">
         <v>38</v>
@@ -1435,7 +1454,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -1446,10 +1465,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C90">
         <v>38</v>
@@ -1457,12 +1476,34 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C91">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
         <v>38</v>
       </c>
     </row>
@@ -1472,6 +1513,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6556F899-85D6-4595-8444-EFE6F652FB70}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Fixtures.xlsx
+++ b/Fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Insper\2° semestre\CDados\Projetos\Projeto2_Cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADEBC0-7AA3-4DD4-B4DE-E5B133C6011C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B6DEEB-2119-46AB-8DCA-86FDB85A267E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="258" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="30">
   <si>
     <t>Home</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Norwich</t>
+  </si>
+  <si>
+    <t>Spurs</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -717,7 +720,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -819,7 +822,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>32</v>
@@ -937,7 +940,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -962,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C44" s="1">
         <v>34</v>
@@ -1146,7 +1149,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -1259,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C71">
         <v>36</v>
@@ -1366,7 +1369,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -1435,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C87">
         <v>38</v>
